--- a/345-origin.xlsx
+++ b/345-origin.xlsx
@@ -1269,7 +1269,7 @@
         <v>2265.125</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>157.848</v>
@@ -1301,7 +1301,7 @@
         <v>2265.25</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>158.666</v>
@@ -1333,7 +1333,7 @@
         <v>2265.375</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>159.859</v>
@@ -1365,7 +1365,7 @@
         <v>2265.75</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>159.856</v>
@@ -1397,7 +1397,7 @@
         <v>2265.875</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>159.99</v>
@@ -1429,7 +1429,7 @@
         <v>2266</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>159.624</v>
@@ -1461,7 +1461,7 @@
         <v>2266.75</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>159.481</v>
@@ -1493,7 +1493,7 @@
         <v>2266.875</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>158.711</v>
@@ -1525,7 +1525,7 @@
         <v>2267</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>157.415</v>
@@ -1557,7 +1557,7 @@
         <v>2267.625</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>154.93</v>
@@ -1589,7 +1589,7 @@
         <v>2267.75</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>158.615</v>
@@ -1621,7 +1621,7 @@
         <v>2267.875</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>162.738</v>
@@ -1653,7 +1653,7 @@
         <v>2268.625</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>163.259</v>
@@ -1685,7 +1685,7 @@
         <v>2268.75</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>161.386</v>
@@ -1717,7 +1717,7 @@
         <v>2268.875</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>160.316</v>
@@ -1749,7 +1749,7 @@
         <v>2269.625</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>158.366</v>
@@ -1781,7 +1781,7 @@
         <v>2269.75</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>159.951</v>
@@ -1813,7 +1813,7 @@
         <v>2269.875</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>162.662</v>
@@ -1845,7 +1845,7 @@
         <v>2270.75</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>164.481</v>
@@ -1877,7 +1877,7 @@
         <v>2270.875</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>162.038</v>
@@ -1909,7 +1909,7 @@
         <v>2271</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>159.34</v>
@@ -1941,7 +1941,7 @@
         <v>2271.625</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>162.575</v>
@@ -1973,7 +1973,7 @@
         <v>2271.75</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>162.644</v>
@@ -2005,7 +2005,7 @@
         <v>2271.875</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>163.555</v>
@@ -2037,7 +2037,7 @@
         <v>2272.5</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>164.061</v>
@@ -2069,7 +2069,7 @@
         <v>2272.625</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>162.007</v>
@@ -2101,7 +2101,7 @@
         <v>2272.75</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>162.149</v>
@@ -2133,7 +2133,7 @@
         <v>2273</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>175.889</v>
@@ -2165,7 +2165,7 @@
         <v>2273.125</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>182.417</v>
@@ -2197,7 +2197,7 @@
         <v>2273.25</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>184.495</v>
@@ -2229,7 +2229,7 @@
         <v>2273.375</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>183.122</v>
@@ -2261,7 +2261,7 @@
         <v>2273.5</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>181.825</v>
@@ -2293,7 +2293,7 @@
         <v>2273.625</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>181.409</v>
@@ -2325,7 +2325,7 @@
         <v>2273.75</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>180.309</v>
@@ -2357,7 +2357,7 @@
         <v>2273.875</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <v>178.423</v>
@@ -2389,7 +2389,7 @@
         <v>2274</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>176.88</v>
@@ -2421,7 +2421,7 @@
         <v>2274.375</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>171.291</v>
@@ -2453,7 +2453,7 @@
         <v>2274.5</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>170.148</v>
@@ -2485,7 +2485,7 @@
         <v>2274.625</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>170.607</v>
@@ -2517,7 +2517,7 @@
         <v>2275.625</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>177.384</v>
@@ -2549,7 +2549,7 @@
         <v>2275.75</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>176.996</v>
@@ -2581,7 +2581,7 @@
         <v>2275.875</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>174.653</v>
@@ -2613,7 +2613,7 @@
         <v>2276.375</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>170.457</v>
@@ -2645,7 +2645,7 @@
         <v>2276.5</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>171.153</v>
@@ -2677,7 +2677,7 @@
         <v>2276.625</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>172.41</v>
@@ -2709,7 +2709,7 @@
         <v>2277.5</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>169.888</v>
@@ -2741,7 +2741,7 @@
         <v>2277.625</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>167.773</v>
@@ -2773,7 +2773,7 @@
         <v>2277.75</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>164.226</v>
@@ -2805,7 +2805,7 @@
         <v>2278.5</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>168.896</v>
@@ -2837,7 +2837,7 @@
         <v>2278.625</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>168.164</v>
@@ -2869,7 +2869,7 @@
         <v>2278.75</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>166.007</v>
@@ -2901,7 +2901,7 @@
         <v>2279.75</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>165.103</v>
@@ -2933,7 +2933,7 @@
         <v>2279.875</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>165.631</v>
@@ -2965,7 +2965,7 @@
         <v>2280</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>164.353</v>
@@ -2997,7 +2997,7 @@
         <v>2281</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>170.103</v>
@@ -3029,7 +3029,7 @@
         <v>2281.125</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>172.508</v>
@@ -3061,7 +3061,7 @@
         <v>2281.25</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>175.654</v>
@@ -3093,7 +3093,7 @@
         <v>2282</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>173.175</v>
@@ -3125,7 +3125,7 @@
         <v>2282.125</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>171.665</v>
@@ -3157,7 +3157,7 @@
         <v>2282.25</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>172.004</v>
@@ -3189,7 +3189,7 @@
         <v>2283</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>174.995</v>
@@ -3221,7 +3221,7 @@
         <v>2283.125</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>177.342</v>
@@ -3253,7 +3253,7 @@
         <v>2283.25</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>183.386</v>
@@ -3285,7 +3285,7 @@
         <v>2283.625</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>197.481</v>
@@ -3317,7 +3317,7 @@
         <v>2283.75</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>197.213</v>
@@ -3349,7 +3349,7 @@
         <v>2283.875</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>196.836</v>
@@ -3381,7 +3381,7 @@
         <v>2285</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>164.452</v>
@@ -3413,7 +3413,7 @@
         <v>2285.125</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>161.596</v>
@@ -3445,7 +3445,7 @@
         <v>2285.25</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>158.791</v>
@@ -3477,7 +3477,7 @@
         <v>2285.5</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71">
         <v>151.744</v>
@@ -3509,7 +3509,7 @@
         <v>2285.625</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72">
         <v>149.637</v>
@@ -3541,7 +3541,7 @@
         <v>2285.75</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <v>148.424</v>
@@ -3573,7 +3573,7 @@
         <v>2285.875</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>146.667</v>
@@ -3605,7 +3605,7 @@
         <v>2286</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>143.487</v>
@@ -3637,7 +3637,7 @@
         <v>2286.125</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76">
         <v>137.622</v>
@@ -3669,7 +3669,7 @@
         <v>2286.25</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77">
         <v>127.198</v>
@@ -3701,7 +3701,7 @@
         <v>2286.375</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78">
         <v>113.507</v>
@@ -3733,7 +3733,7 @@
         <v>2286.5</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>99.762</v>
@@ -3765,7 +3765,7 @@
         <v>2286.625</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80">
         <v>91.232</v>
@@ -3797,7 +3797,7 @@
         <v>2286.75</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81">
         <v>89.517</v>
@@ -3829,7 +3829,7 @@
         <v>2287</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82">
         <v>115.013</v>
@@ -3861,7 +3861,7 @@
         <v>2287.25</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>137.358</v>
@@ -3893,7 +3893,7 @@
         <v>2287.375</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>139.107</v>
@@ -3925,7 +3925,7 @@
         <v>2287.5</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>142.982</v>
@@ -3957,7 +3957,7 @@
         <v>2287.625</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <v>149.485</v>
@@ -3989,7 +3989,7 @@
         <v>2288.75</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <v>175.295</v>
@@ -4021,7 +4021,7 @@
         <v>2289</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88">
         <v>173.896</v>
@@ -4053,7 +4053,7 @@
         <v>2289.125</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <v>173.91</v>
@@ -4085,7 +4085,7 @@
         <v>2289.25</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90">
         <v>174.92</v>
@@ -4117,7 +4117,7 @@
         <v>2289.375</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <v>176.34</v>
@@ -4149,7 +4149,7 @@
         <v>2289.625</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92">
         <v>188.559</v>
@@ -4181,7 +4181,7 @@
         <v>2290.5</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93">
         <v>230.905</v>
@@ -4213,7 +4213,7 @@
         <v>2290.625</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>231.72</v>
@@ -4245,7 +4245,7 @@
         <v>2290.75</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>226.221</v>
@@ -4277,7 +4277,7 @@
         <v>2291</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96">
         <v>194.391</v>
@@ -4309,7 +4309,7 @@
         <v>2291.125</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>198.053</v>
@@ -4341,7 +4341,7 @@
         <v>2291.25</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98">
         <v>206.598</v>
@@ -4373,7 +4373,7 @@
         <v>2291.375</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99">
         <v>192.676</v>
@@ -4405,7 +4405,7 @@
         <v>2291.625</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100">
         <v>196.519</v>
@@ -4437,7 +4437,7 @@
         <v>2292.5</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101">
         <v>198.884</v>
@@ -4469,7 +4469,7 @@
         <v>2292.625</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D102">
         <v>199.276</v>
@@ -4501,7 +4501,7 @@
         <v>2293.75</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D103">
         <v>202.439</v>
@@ -4533,7 +4533,7 @@
         <v>2293.875</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>205.146</v>
@@ -4565,7 +4565,7 @@
         <v>2294.5</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D105">
         <v>183.352</v>
@@ -4597,7 +4597,7 @@
         <v>2295.125</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D106">
         <v>184.55</v>
@@ -4629,7 +4629,7 @@
         <v>2295.25</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D107">
         <v>207.038</v>
@@ -4661,7 +4661,7 @@
         <v>2295.875</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D108">
         <v>191.198</v>
@@ -4693,7 +4693,7 @@
         <v>2296</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109">
         <v>196.747</v>
@@ -4725,7 +4725,7 @@
         <v>2297</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110">
         <v>153.892</v>
@@ -4757,7 +4757,7 @@
         <v>2297.125</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D111">
         <v>144.007</v>
@@ -4789,7 +4789,7 @@
         <v>2297.25</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D112">
         <v>153.408</v>
@@ -4821,7 +4821,7 @@
         <v>2299.125</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113">
         <v>153.868</v>
@@ -4853,7 +4853,7 @@
         <v>2299.25</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D114">
         <v>152.584</v>
@@ -4885,7 +4885,7 @@
         <v>2299.375</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D115">
         <v>144.601</v>
@@ -4917,7 +4917,7 @@
         <v>2300</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D116">
         <v>143.744</v>
@@ -4949,7 +4949,7 @@
         <v>2300.125</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D117">
         <v>140.831</v>
@@ -4981,7 +4981,7 @@
         <v>2300.25</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118">
         <v>147.502</v>
@@ -5013,7 +5013,7 @@
         <v>2300.875</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>148.899</v>
@@ -5045,7 +5045,7 @@
         <v>2301</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120">
         <v>148.456</v>
@@ -5077,7 +5077,7 @@
         <v>2301.125</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>149.76</v>
@@ -5109,7 +5109,7 @@
         <v>2301.625</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>149.311</v>
@@ -5141,7 +5141,7 @@
         <v>2301.75</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>148.926</v>
@@ -5173,7 +5173,7 @@
         <v>2301.875</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>153.795</v>
@@ -5205,7 +5205,7 @@
         <v>2302.875</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125">
         <v>154.394</v>
@@ -5237,7 +5237,7 @@
         <v>2303</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126">
         <v>155.773</v>
@@ -5269,7 +5269,7 @@
         <v>2303.125</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D127">
         <v>156.869</v>
@@ -5301,7 +5301,7 @@
         <v>2303.875</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D128">
         <v>156.614</v>
@@ -5333,7 +5333,7 @@
         <v>2304</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D129">
         <v>155.87</v>
@@ -5365,7 +5365,7 @@
         <v>2304.125</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D130">
         <v>155.477</v>
@@ -5397,7 +5397,7 @@
         <v>2304.75</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D131">
         <v>156.749</v>
@@ -5429,7 +5429,7 @@
         <v>2304.875</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>159.43</v>
@@ -5461,7 +5461,7 @@
         <v>2305</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>161.593</v>
@@ -5493,7 +5493,7 @@
         <v>2305.875</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D134">
         <v>160.766</v>
@@ -5525,7 +5525,7 @@
         <v>2306</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D135">
         <v>156.531</v>
@@ -5557,7 +5557,7 @@
         <v>2306.125</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D136">
         <v>151.433</v>
@@ -5589,7 +5589,7 @@
         <v>2307</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D137">
         <v>149.198</v>
@@ -5621,7 +5621,7 @@
         <v>2307.125</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D138">
         <v>151.132</v>
@@ -5653,7 +5653,7 @@
         <v>2307.25</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D139">
         <v>156.826</v>
@@ -5685,7 +5685,7 @@
         <v>2307.375</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D140">
         <v>162.899</v>
@@ -5717,7 +5717,7 @@
         <v>2307.5</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D141">
         <v>166.481</v>
@@ -5749,7 +5749,7 @@
         <v>2307.625</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D142">
         <v>167.077</v>
@@ -5781,7 +5781,7 @@
         <v>2307.75</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D143">
         <v>166.698</v>
@@ -5813,7 +5813,7 @@
         <v>2307.875</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D144">
         <v>158.243</v>
@@ -5845,7 +5845,7 @@
         <v>2308</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D145">
         <v>154.257</v>
@@ -5877,7 +5877,7 @@
         <v>2308.125</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D146">
         <v>152.184</v>
@@ -5909,7 +5909,7 @@
         <v>2308.25</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D147">
         <v>149.925</v>
@@ -5941,7 +5941,7 @@
         <v>2308.375</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D148">
         <v>152.562</v>
@@ -5973,7 +5973,7 @@
         <v>2308.5</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D149">
         <v>154.054</v>
@@ -6005,7 +6005,7 @@
         <v>2308.625</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D150">
         <v>156.777</v>
@@ -6037,7 +6037,7 @@
         <v>2308.75</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D151">
         <v>159.148</v>
@@ -6069,7 +6069,7 @@
         <v>2308.875</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D152">
         <v>161.285</v>
@@ -6101,7 +6101,7 @@
         <v>2309</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D153">
         <v>162.185</v>
@@ -6133,7 +6133,7 @@
         <v>2309.125</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <v>162.264</v>
@@ -6165,7 +6165,7 @@
         <v>2309.25</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D155">
         <v>162.393</v>
@@ -6197,7 +6197,7 @@
         <v>2309.375</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D156">
         <v>162.331</v>
@@ -6229,7 +6229,7 @@
         <v>2309.875</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D157">
         <v>163.005</v>
@@ -6261,7 +6261,7 @@
         <v>2310</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D158">
         <v>162.535</v>
@@ -6293,7 +6293,7 @@
         <v>2310.125</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D159">
         <v>214.533</v>
@@ -6325,7 +6325,7 @@
         <v>2310.75</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D160">
         <v>223.144</v>
@@ -6357,7 +6357,7 @@
         <v>2310.875</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D161">
         <v>218.058</v>
@@ -6389,7 +6389,7 @@
         <v>2311</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D162">
         <v>170.755</v>
@@ -6421,7 +6421,7 @@
         <v>2311.625</v>
       </c>
       <c r="C163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D163">
         <v>173.461</v>
@@ -6453,7 +6453,7 @@
         <v>2311.75</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D164">
         <v>175.602</v>
@@ -6485,7 +6485,7 @@
         <v>2311.875</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D165">
         <v>178.363</v>
@@ -6517,7 +6517,7 @@
         <v>2312.375</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <v>179.257</v>
@@ -6549,7 +6549,7 @@
         <v>2312.5</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D167">
         <v>177.016</v>
@@ -6581,7 +6581,7 @@
         <v>2312.625</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <v>172.866</v>
@@ -6613,7 +6613,7 @@
         <v>2313.5</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D169">
         <v>169.885</v>
@@ -6645,7 +6645,7 @@
         <v>2313.625</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <v>163.122</v>
@@ -6677,7 +6677,7 @@
         <v>2313.75</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D171">
         <v>164.722</v>
@@ -6709,7 +6709,7 @@
         <v>2314.625</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D172">
         <v>165.655</v>
@@ -6741,7 +6741,7 @@
         <v>2314.75</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D173">
         <v>163.354</v>
@@ -6773,7 +6773,7 @@
         <v>2314.875</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D174">
         <v>163.965</v>
@@ -6805,7 +6805,7 @@
         <v>2315</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D175">
         <v>165.205</v>
@@ -6837,7 +6837,7 @@
         <v>2315.125</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D176">
         <v>156.273</v>
@@ -6869,7 +6869,7 @@
         <v>2315.25</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D177">
         <v>156.191</v>
@@ -6901,7 +6901,7 @@
         <v>2315.375</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D178">
         <v>155.07</v>
@@ -6933,7 +6933,7 @@
         <v>2315.5</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D179">
         <v>161.454</v>
@@ -6965,7 +6965,7 @@
         <v>2315.625</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D180">
         <v>164.328</v>
@@ -6997,7 +6997,7 @@
         <v>2315.75</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D181">
         <v>163.985</v>
@@ -7029,7 +7029,7 @@
         <v>2315.875</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D182">
         <v>160.193</v>
@@ -7061,7 +7061,7 @@
         <v>2316.75</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D183">
         <v>160.856</v>
@@ -7093,7 +7093,7 @@
         <v>2316.875</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>162.622</v>
@@ -7125,7 +7125,7 @@
         <v>2317</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D185">
         <v>157.995</v>
@@ -7157,7 +7157,7 @@
         <v>2317.75</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D186">
         <v>160.327</v>
@@ -7189,7 +7189,7 @@
         <v>2317.875</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D187">
         <v>162.228</v>
@@ -7221,7 +7221,7 @@
         <v>2318</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <v>169.966</v>
@@ -7253,7 +7253,7 @@
         <v>2318.75</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189">
         <v>167.504</v>
@@ -7285,7 +7285,7 @@
         <v>2318.875</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D190">
         <v>166.597</v>
@@ -7317,7 +7317,7 @@
         <v>2319</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <v>178.419</v>
@@ -7349,7 +7349,7 @@
         <v>2319.625</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D192">
         <v>180.344</v>
@@ -7381,7 +7381,7 @@
         <v>2319.75</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>177.43</v>
@@ -7413,7 +7413,7 @@
         <v>2319.875</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194">
         <v>172.414</v>
@@ -7445,7 +7445,7 @@
         <v>2320.875</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <v>171.81</v>
@@ -7477,7 +7477,7 @@
         <v>2321</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D196">
         <v>169.281</v>
@@ -7509,7 +7509,7 @@
         <v>2321.125</v>
       </c>
       <c r="C197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D197">
         <v>166.736</v>
@@ -7541,7 +7541,7 @@
         <v>2322.375</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D198">
         <v>167.894</v>
@@ -7573,7 +7573,7 @@
         <v>2322.5</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D199">
         <v>168.561</v>
@@ -7605,7 +7605,7 @@
         <v>2322.625</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>169.127</v>
@@ -7637,7 +7637,7 @@
         <v>2323.875</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201">
         <v>168.774</v>
@@ -7669,7 +7669,7 @@
         <v>2324</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D202">
         <v>166.464</v>
@@ -7701,7 +7701,7 @@
         <v>2324.125</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D203">
         <v>163.085</v>
@@ -7733,7 +7733,7 @@
         <v>2324.625</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D204">
         <v>163.573</v>
@@ -7765,7 +7765,7 @@
         <v>2324.75</v>
       </c>
       <c r="C205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D205">
         <v>164.119</v>
@@ -7797,7 +7797,7 @@
         <v>2324.875</v>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D206">
         <v>164.015</v>
@@ -7829,7 +7829,7 @@
         <v>2326.125</v>
       </c>
       <c r="C207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D207">
         <v>163.905</v>
@@ -7861,7 +7861,7 @@
         <v>2326.25</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D208">
         <v>164.123</v>
@@ -7893,7 +7893,7 @@
         <v>2326.375</v>
       </c>
       <c r="C209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D209">
         <v>163.809</v>
@@ -7925,7 +7925,7 @@
         <v>2327</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D210">
         <v>163.1</v>
@@ -7957,7 +7957,7 @@
         <v>2327.125</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D211">
         <v>162.834</v>
@@ -7989,7 +7989,7 @@
         <v>2327.25</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212">
         <v>165.279</v>
@@ -8021,7 +8021,7 @@
         <v>2328.125</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D213">
         <v>166.6</v>
@@ -8053,7 +8053,7 @@
         <v>2328.25</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D214">
         <v>167.408</v>
@@ -8085,7 +8085,7 @@
         <v>2328.375</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215">
         <v>175.077</v>
@@ -8117,7 +8117,7 @@
         <v>2328.625</v>
       </c>
       <c r="C216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D216">
         <v>176.341</v>
@@ -8149,7 +8149,7 @@
         <v>2328.75</v>
       </c>
       <c r="C217">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D217">
         <v>178.067</v>
@@ -8181,7 +8181,7 @@
         <v>2328.875</v>
       </c>
       <c r="C218">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D218">
         <v>179.01</v>
@@ -8213,7 +8213,7 @@
         <v>2329</v>
       </c>
       <c r="C219">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D219">
         <v>180.449</v>
@@ -8245,7 +8245,7 @@
         <v>2329.125</v>
       </c>
       <c r="C220">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D220">
         <v>180.047</v>
@@ -8277,7 +8277,7 @@
         <v>2329.25</v>
       </c>
       <c r="C221">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D221">
         <v>198.448</v>
@@ -8309,7 +8309,7 @@
         <v>2329.375</v>
       </c>
       <c r="C222">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D222">
         <v>206.855</v>
@@ -8341,7 +8341,7 @@
         <v>2329.5</v>
       </c>
       <c r="C223">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D223">
         <v>216.506</v>
@@ -8373,7 +8373,7 @@
         <v>2329.625</v>
       </c>
       <c r="C224">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D224">
         <v>181.873</v>
@@ -8405,7 +8405,7 @@
         <v>2329.875</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D225">
         <v>184.478</v>
@@ -8437,7 +8437,7 @@
         <v>2330</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226">
         <v>194.863</v>
@@ -8469,7 +8469,7 @@
         <v>2330.125</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227">
         <v>206.087</v>
@@ -8501,7 +8501,7 @@
         <v>2330.875</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D228">
         <v>205.397</v>
@@ -8533,7 +8533,7 @@
         <v>2331</v>
       </c>
       <c r="C229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D229">
         <v>207.143</v>
@@ -8565,7 +8565,7 @@
         <v>2331.125</v>
       </c>
       <c r="C230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D230">
         <v>196.362</v>
@@ -8597,7 +8597,7 @@
         <v>2332.5</v>
       </c>
       <c r="C231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D231">
         <v>192.422</v>
@@ -8629,7 +8629,7 @@
         <v>2332.625</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232">
         <v>188.826</v>
@@ -8661,7 +8661,7 @@
         <v>2332.75</v>
       </c>
       <c r="C233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D233">
         <v>179.002</v>
@@ -8693,7 +8693,7 @@
         <v>2333.375</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D234">
         <v>177.646</v>
@@ -8725,7 +8725,7 @@
         <v>2333.5</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D235">
         <v>178.672</v>
@@ -8757,7 +8757,7 @@
         <v>2333.625</v>
       </c>
       <c r="C236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D236">
         <v>179.444</v>
@@ -8789,7 +8789,7 @@
         <v>2334.375</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237">
         <v>182.431</v>
@@ -8821,7 +8821,7 @@
         <v>2334.5</v>
       </c>
       <c r="C238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D238">
         <v>182.045</v>
@@ -8853,7 +8853,7 @@
         <v>2334.625</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D239">
         <v>172.97</v>
@@ -8885,7 +8885,7 @@
         <v>2335.375</v>
       </c>
       <c r="C240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D240">
         <v>173.468</v>
@@ -8917,7 +8917,7 @@
         <v>2335.5</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D241">
         <v>173.38</v>
@@ -8949,7 +8949,7 @@
         <v>2335.625</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D242">
         <v>166.064</v>
@@ -8981,7 +8981,7 @@
         <v>2336.5</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D243">
         <v>170.419</v>
@@ -9013,7 +9013,7 @@
         <v>2336.625</v>
       </c>
       <c r="C244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D244">
         <v>172.534</v>
@@ -9045,7 +9045,7 @@
         <v>2336.75</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D245">
         <v>198.556</v>
@@ -9077,7 +9077,7 @@
         <v>2337.125</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D246">
         <v>197.41</v>
@@ -9109,7 +9109,7 @@
         <v>2337.25</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D247">
         <v>192.841</v>
@@ -9141,7 +9141,7 @@
         <v>2337.375</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D248">
         <v>187.372</v>
@@ -9173,7 +9173,7 @@
         <v>2338.25</v>
       </c>
       <c r="C249">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D249">
         <v>191.513</v>
@@ -9205,7 +9205,7 @@
         <v>2338.375</v>
       </c>
       <c r="C250">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D250">
         <v>195.9</v>
@@ -9237,7 +9237,7 @@
         <v>2338.5</v>
       </c>
       <c r="C251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D251">
         <v>202.469</v>
@@ -9269,7 +9269,7 @@
         <v>2339.625</v>
       </c>
       <c r="C252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D252">
         <v>200.515</v>
@@ -9301,7 +9301,7 @@
         <v>2339.75</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D253">
         <v>200.661</v>
@@ -9333,7 +9333,7 @@
         <v>2339.875</v>
       </c>
       <c r="C254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D254">
         <v>203.276</v>
@@ -9365,7 +9365,7 @@
         <v>2341.25</v>
       </c>
       <c r="C255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D255">
         <v>202.268</v>
@@ -9397,7 +9397,7 @@
         <v>2341.375</v>
       </c>
       <c r="C256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D256">
         <v>198.601</v>
@@ -9429,7 +9429,7 @@
         <v>2341.5</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257">
         <v>192.571</v>
@@ -9461,7 +9461,7 @@
         <v>2342.125</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D258">
         <v>196.875</v>
@@ -9493,7 +9493,7 @@
         <v>2342.25</v>
       </c>
       <c r="C259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D259">
         <v>201.49</v>
@@ -9525,7 +9525,7 @@
         <v>2342.375</v>
       </c>
       <c r="C260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D260">
         <v>204.439</v>
@@ -9557,7 +9557,7 @@
         <v>2343.125</v>
       </c>
       <c r="C261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D261">
         <v>204.158</v>
@@ -9589,7 +9589,7 @@
         <v>2343.25</v>
       </c>
       <c r="C262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D262">
         <v>199.854</v>
@@ -9621,7 +9621,7 @@
         <v>2343.375</v>
       </c>
       <c r="C263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D263">
         <v>191.476</v>
@@ -9653,7 +9653,7 @@
         <v>2344.25</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D264">
         <v>182.745</v>
@@ -9685,7 +9685,7 @@
         <v>2344.375</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D265">
         <v>177.904</v>
@@ -9717,7 +9717,7 @@
         <v>2344.5</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D266">
         <v>180.647</v>
@@ -9749,7 +9749,7 @@
         <v>2345.375</v>
       </c>
       <c r="C267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D267">
         <v>189.015</v>
@@ -9781,7 +9781,7 @@
         <v>2345.5</v>
       </c>
       <c r="C268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D268">
         <v>200.906</v>
@@ -9813,7 +9813,7 @@
         <v>2345.625</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D269">
         <v>196.245</v>
@@ -9845,7 +9845,7 @@
         <v>2346</v>
       </c>
       <c r="C270">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D270">
         <v>191.263</v>
@@ -9877,7 +9877,7 @@
         <v>2346.125</v>
       </c>
       <c r="C271">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D271">
         <v>206.914</v>
@@ -9909,7 +9909,7 @@
         <v>2346.25</v>
       </c>
       <c r="C272">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D272">
         <v>207.291</v>
@@ -9941,7 +9941,7 @@
         <v>2346.375</v>
       </c>
       <c r="C273">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D273">
         <v>203.996</v>
@@ -9973,7 +9973,7 @@
         <v>2346.5</v>
       </c>
       <c r="C274">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D274">
         <v>203.621</v>
@@ -10005,7 +10005,7 @@
         <v>2346.625</v>
       </c>
       <c r="C275">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D275">
         <v>203.081</v>
@@ -10037,7 +10037,7 @@
         <v>2346.75</v>
       </c>
       <c r="C276">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D276">
         <v>201.408</v>
@@ -10069,7 +10069,7 @@
         <v>2346.875</v>
       </c>
       <c r="C277">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D277">
         <v>195.862</v>
@@ -10101,7 +10101,7 @@
         <v>2347</v>
       </c>
       <c r="C278">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D278">
         <v>193.378</v>
@@ -10133,7 +10133,7 @@
         <v>2347.125</v>
       </c>
       <c r="C279">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D279">
         <v>195.024</v>
@@ -10165,7 +10165,7 @@
         <v>2347.25</v>
       </c>
       <c r="C280">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D280">
         <v>172.133</v>
@@ -10197,7 +10197,7 @@
         <v>2347.625</v>
       </c>
       <c r="C281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D281">
         <v>174.314</v>
@@ -10229,7 +10229,7 @@
         <v>2347.75</v>
       </c>
       <c r="C282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D282">
         <v>175.692</v>
@@ -10261,7 +10261,7 @@
         <v>2347.875</v>
       </c>
       <c r="C283">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D283">
         <v>167.934</v>
@@ -10293,7 +10293,7 @@
         <v>2348.5</v>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D284">
         <v>171.757</v>
@@ -10325,7 +10325,7 @@
         <v>2348.625</v>
       </c>
       <c r="C285">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D285">
         <v>176.881</v>
@@ -10357,7 +10357,7 @@
         <v>2348.75</v>
       </c>
       <c r="C286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D286">
         <v>197.305</v>
@@ -10389,7 +10389,7 @@
         <v>2350.125</v>
       </c>
       <c r="C287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D287">
         <v>196.232</v>
@@ -10421,7 +10421,7 @@
         <v>2350.25</v>
       </c>
       <c r="C288">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D288">
         <v>196.303</v>
@@ -10453,7 +10453,7 @@
         <v>2350.375</v>
       </c>
       <c r="C289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D289">
         <v>216.699</v>
@@ -10485,7 +10485,7 @@
         <v>2351.125</v>
       </c>
       <c r="C290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D290">
         <v>218.656</v>
@@ -10517,7 +10517,7 @@
         <v>2351.25</v>
       </c>
       <c r="C291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D291">
         <v>217.274</v>
@@ -10549,7 +10549,7 @@
         <v>2351.375</v>
       </c>
       <c r="C292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D292">
         <v>337.253</v>
@@ -10581,7 +10581,7 @@
         <v>2352.25</v>
       </c>
       <c r="C293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D293">
         <v>356.106</v>
@@ -10613,7 +10613,7 @@
         <v>2352.375</v>
       </c>
       <c r="C294">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D294">
         <v>343.032</v>
@@ -10645,7 +10645,7 @@
         <v>2352.5</v>
       </c>
       <c r="C295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D295">
         <v>195.852</v>
@@ -10677,7 +10677,7 @@
         <v>2353.25</v>
       </c>
       <c r="C296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D296">
         <v>190.887</v>
@@ -10709,7 +10709,7 @@
         <v>2353.375</v>
       </c>
       <c r="C297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D297">
         <v>183.363</v>
@@ -10741,7 +10741,7 @@
         <v>2353.5</v>
       </c>
       <c r="C298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D298">
         <v>180.706</v>
@@ -10773,7 +10773,7 @@
         <v>2354.375</v>
       </c>
       <c r="C299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D299">
         <v>177.142</v>
@@ -10805,7 +10805,7 @@
         <v>2354.5</v>
       </c>
       <c r="C300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D300">
         <v>181.327</v>
@@ -10837,7 +10837,7 @@
         <v>2354.625</v>
       </c>
       <c r="C301">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D301">
         <v>181.015</v>
@@ -10869,7 +10869,7 @@
         <v>2355.625</v>
       </c>
       <c r="C302">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D302">
         <v>174.749</v>
@@ -10901,7 +10901,7 @@
         <v>2355.75</v>
       </c>
       <c r="C303">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D303">
         <v>166.82</v>
@@ -10933,7 +10933,7 @@
         <v>2355.875</v>
       </c>
       <c r="C304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D304">
         <v>120.891</v>
@@ -10965,7 +10965,7 @@
         <v>2356.75</v>
       </c>
       <c r="C305">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D305">
         <v>123.442</v>
@@ -10997,7 +10997,7 @@
         <v>2356.875</v>
       </c>
       <c r="C306">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D306">
         <v>130.404</v>
@@ -11029,7 +11029,7 @@
         <v>2357</v>
       </c>
       <c r="C307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D307">
         <v>177.772</v>
@@ -11061,7 +11061,7 @@
         <v>2494.5</v>
       </c>
       <c r="C308">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D308">
         <v>165.888</v>
@@ -11093,7 +11093,7 @@
         <v>2494.625</v>
       </c>
       <c r="C309">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D309">
         <v>164.232</v>
@@ -11125,7 +11125,7 @@
         <v>2496.625</v>
       </c>
       <c r="C310">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D310">
         <v>164.439</v>
@@ -11157,7 +11157,7 @@
         <v>2496.75</v>
       </c>
       <c r="C311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D311">
         <v>165.382</v>
@@ -11189,7 +11189,7 @@
         <v>2496.875</v>
       </c>
       <c r="C312">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D312">
         <v>165.65</v>
@@ -11221,7 +11221,7 @@
         <v>2520.125</v>
       </c>
       <c r="C313">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D313">
         <v>188.447</v>
@@ -11253,7 +11253,7 @@
         <v>2520.25</v>
       </c>
       <c r="C314">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D314">
         <v>181.884</v>
@@ -11285,7 +11285,7 @@
         <v>2521</v>
       </c>
       <c r="C315">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D315">
         <v>174.907</v>
@@ -11317,7 +11317,7 @@
         <v>2521.125</v>
       </c>
       <c r="C316">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D316">
         <v>176.183</v>
@@ -11349,7 +11349,7 @@
         <v>2521.25</v>
       </c>
       <c r="C317">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D317">
         <v>177.935</v>
@@ -11381,7 +11381,7 @@
         <v>2522.125</v>
       </c>
       <c r="C318">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D318">
         <v>181.222</v>
@@ -11413,7 +11413,7 @@
         <v>2522.25</v>
       </c>
       <c r="C319">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D319">
         <v>184.508</v>
@@ -11445,7 +11445,7 @@
         <v>2522.375</v>
       </c>
       <c r="C320">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D320">
         <v>187.919</v>
@@ -11477,7 +11477,7 @@
         <v>2523.25</v>
       </c>
       <c r="C321">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D321">
         <v>189.081</v>
@@ -11509,7 +11509,7 @@
         <v>2523.375</v>
       </c>
       <c r="C322">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D322">
         <v>191.613</v>
@@ -11541,7 +11541,7 @@
         <v>2523.5</v>
       </c>
       <c r="C323">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D323">
         <v>194.113</v>
@@ -11573,7 +11573,7 @@
         <v>2524.25</v>
       </c>
       <c r="C324">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D324">
         <v>186.462</v>
@@ -11605,7 +11605,7 @@
         <v>2524.375</v>
       </c>
       <c r="C325">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D325">
         <v>183.164</v>
@@ -11637,7 +11637,7 @@
         <v>2524.5</v>
       </c>
       <c r="C326">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D326">
         <v>182.628</v>
@@ -11669,7 +11669,7 @@
         <v>2525.125</v>
       </c>
       <c r="C327">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D327">
         <v>174.938</v>
@@ -11701,7 +11701,7 @@
         <v>2525.25</v>
       </c>
       <c r="C328">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D328">
         <v>175.701</v>
@@ -11733,7 +11733,7 @@
         <v>2525.375</v>
       </c>
       <c r="C329">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D329">
         <v>176.596</v>
@@ -11765,7 +11765,7 @@
         <v>2526.125</v>
       </c>
       <c r="C330">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D330">
         <v>178.725</v>
@@ -11797,7 +11797,7 @@
         <v>2526.25</v>
       </c>
       <c r="C331">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D331">
         <v>180.339</v>
@@ -11829,7 +11829,7 @@
         <v>2526.375</v>
       </c>
       <c r="C332">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D332">
         <v>183.28</v>
@@ -11861,7 +11861,7 @@
         <v>2527.125</v>
       </c>
       <c r="C333">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D333">
         <v>181.617</v>
@@ -11893,7 +11893,7 @@
         <v>2527.25</v>
       </c>
       <c r="C334">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D334">
         <v>179.41</v>
@@ -11925,7 +11925,7 @@
         <v>2527.375</v>
       </c>
       <c r="C335">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D335">
         <v>177.695</v>
@@ -11957,7 +11957,7 @@
         <v>2528</v>
       </c>
       <c r="C336">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D336">
         <v>178.108</v>
@@ -11989,7 +11989,7 @@
         <v>2528.125</v>
       </c>
       <c r="C337">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D337">
         <v>175.971</v>
@@ -12021,7 +12021,7 @@
         <v>2528.25</v>
       </c>
       <c r="C338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D338">
         <v>175.205</v>
@@ -12053,7 +12053,7 @@
         <v>2528.875</v>
       </c>
       <c r="C339">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D339">
         <v>182.537</v>
@@ -12085,7 +12085,7 @@
         <v>2529</v>
       </c>
       <c r="C340">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D340">
         <v>178.026</v>
@@ -12117,7 +12117,7 @@
         <v>2529.125</v>
       </c>
       <c r="C341">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D341">
         <v>172.929</v>
@@ -12149,7 +12149,7 @@
         <v>2529.75</v>
       </c>
       <c r="C342">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D342">
         <v>179.54</v>
@@ -12181,7 +12181,7 @@
         <v>2529.875</v>
       </c>
       <c r="C343">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D343">
         <v>180.642</v>
@@ -12213,7 +12213,7 @@
         <v>2530</v>
       </c>
       <c r="C344">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D344">
         <v>180.674</v>
@@ -12245,7 +12245,7 @@
         <v>2530.625</v>
       </c>
       <c r="C345">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D345">
         <v>178.624</v>
@@ -12277,7 +12277,7 @@
         <v>2530.75</v>
       </c>
       <c r="C346">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D346">
         <v>177.418</v>
@@ -12309,7 +12309,7 @@
         <v>2530.875</v>
       </c>
       <c r="C347">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D347">
         <v>177.107</v>
@@ -12341,7 +12341,7 @@
         <v>2531.375</v>
       </c>
       <c r="C348">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D348">
         <v>184.077</v>
@@ -12373,7 +12373,7 @@
         <v>2531.5</v>
       </c>
       <c r="C349">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D349">
         <v>184.536</v>
@@ -12405,7 +12405,7 @@
         <v>2531.625</v>
       </c>
       <c r="C350">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D350">
         <v>185.313</v>
@@ -12437,7 +12437,7 @@
         <v>2532.375</v>
       </c>
       <c r="C351">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D351">
         <v>181.358</v>
@@ -12469,7 +12469,7 @@
         <v>2532.5</v>
       </c>
       <c r="C352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D352">
         <v>178.836</v>
@@ -12501,7 +12501,7 @@
         <v>2532.625</v>
       </c>
       <c r="C353">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D353">
         <v>177.019</v>
@@ -12533,7 +12533,7 @@
         <v>2533.25</v>
       </c>
       <c r="C354">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D354">
         <v>176.368</v>
@@ -12565,7 +12565,7 @@
         <v>2533.375</v>
       </c>
       <c r="C355">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D355">
         <v>178.819</v>
@@ -12597,7 +12597,7 @@
         <v>2533.5</v>
       </c>
       <c r="C356">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D356">
         <v>180.659</v>
@@ -12629,7 +12629,7 @@
         <v>2534</v>
       </c>
       <c r="C357">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D357">
         <v>187.24</v>
@@ -12661,7 +12661,7 @@
         <v>2534.125</v>
       </c>
       <c r="C358">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D358">
         <v>186.378</v>
@@ -12693,7 +12693,7 @@
         <v>2534.25</v>
       </c>
       <c r="C359">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D359">
         <v>183.233</v>
@@ -12725,7 +12725,7 @@
         <v>2534.875</v>
       </c>
       <c r="C360">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D360">
         <v>177.201</v>
@@ -12757,7 +12757,7 @@
         <v>2535</v>
       </c>
       <c r="C361">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D361">
         <v>174.544</v>
@@ -12789,7 +12789,7 @@
         <v>2535.125</v>
       </c>
       <c r="C362">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D362">
         <v>173.179</v>
@@ -12821,7 +12821,7 @@
         <v>2535.875</v>
       </c>
       <c r="C363">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D363">
         <v>182.827</v>
@@ -12853,7 +12853,7 @@
         <v>2536</v>
       </c>
       <c r="C364">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D364">
         <v>181.282</v>
@@ -12885,7 +12885,7 @@
         <v>2536.125</v>
       </c>
       <c r="C365">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D365">
         <v>181.363</v>
@@ -12917,7 +12917,7 @@
         <v>2536.875</v>
       </c>
       <c r="C366">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D366">
         <v>190.692</v>
@@ -12949,7 +12949,7 @@
         <v>2537</v>
       </c>
       <c r="C367">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D367">
         <v>193.229</v>
@@ -12981,7 +12981,7 @@
         <v>2537.125</v>
       </c>
       <c r="C368">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D368">
         <v>194.289</v>
@@ -13013,7 +13013,7 @@
         <v>2537.875</v>
       </c>
       <c r="C369">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D369">
         <v>188.411</v>
@@ -13045,7 +13045,7 @@
         <v>2538</v>
       </c>
       <c r="C370">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D370">
         <v>187.172</v>
@@ -13077,7 +13077,7 @@
         <v>2538.125</v>
       </c>
       <c r="C371">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D371">
         <v>187.972</v>
@@ -13109,7 +13109,7 @@
         <v>2538.875</v>
       </c>
       <c r="C372">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D372">
         <v>186.225</v>
@@ -13141,7 +13141,7 @@
         <v>2539</v>
       </c>
       <c r="C373">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D373">
         <v>189.167</v>
@@ -13173,7 +13173,7 @@
         <v>2539.125</v>
       </c>
       <c r="C374">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D374">
         <v>190.624</v>
@@ -13205,7 +13205,7 @@
         <v>2540</v>
       </c>
       <c r="C375">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D375">
         <v>186.347</v>
@@ -13237,7 +13237,7 @@
         <v>2540.125</v>
       </c>
       <c r="C376">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D376">
         <v>185.876</v>
@@ -13269,7 +13269,7 @@
         <v>2540.25</v>
       </c>
       <c r="C377">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D377">
         <v>182.737</v>
@@ -13301,7 +13301,7 @@
         <v>2541.5</v>
       </c>
       <c r="C378">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D378">
         <v>198.955</v>
@@ -13333,7 +13333,7 @@
         <v>2541.625</v>
       </c>
       <c r="C379">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D379">
         <v>195.759</v>
@@ -13365,7 +13365,7 @@
         <v>2541.75</v>
       </c>
       <c r="C380">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D380">
         <v>193.833</v>
@@ -13397,7 +13397,7 @@
         <v>2542.625</v>
       </c>
       <c r="C381">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D381">
         <v>213.597</v>
@@ -13429,7 +13429,7 @@
         <v>2542.75</v>
       </c>
       <c r="C382">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D382">
         <v>213.005</v>
@@ -13461,7 +13461,7 @@
         <v>2542.875</v>
       </c>
       <c r="C383">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D383">
         <v>211.356</v>
@@ -13493,7 +13493,7 @@
         <v>2543.375</v>
       </c>
       <c r="C384">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D384">
         <v>208.361</v>
@@ -13525,7 +13525,7 @@
         <v>2543.5</v>
       </c>
       <c r="C385">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D385">
         <v>207.693</v>
@@ -13557,7 +13557,7 @@
         <v>2543.625</v>
       </c>
       <c r="C386">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D386">
         <v>204.293</v>
@@ -13589,7 +13589,7 @@
         <v>2544.375</v>
       </c>
       <c r="C387">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D387">
         <v>193.576</v>
@@ -13621,7 +13621,7 @@
         <v>2544.5</v>
       </c>
       <c r="C388">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D388">
         <v>190.745</v>
@@ -13653,7 +13653,7 @@
         <v>2544.625</v>
       </c>
       <c r="C389">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D389">
         <v>187.679</v>
@@ -13685,7 +13685,7 @@
         <v>2545.25</v>
       </c>
       <c r="C390">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D390">
         <v>181.529</v>
@@ -13717,7 +13717,7 @@
         <v>2545.375</v>
       </c>
       <c r="C391">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D391">
         <v>183.592</v>
@@ -13749,7 +13749,7 @@
         <v>2545.5</v>
       </c>
       <c r="C392">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D392">
         <v>185.671</v>
@@ -13781,7 +13781,7 @@
         <v>2546</v>
       </c>
       <c r="C393">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D393">
         <v>186.347</v>
@@ -13813,7 +13813,7 @@
         <v>2546.125</v>
       </c>
       <c r="C394">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D394">
         <v>188.056</v>
@@ -13845,7 +13845,7 @@
         <v>2546.25</v>
       </c>
       <c r="C395">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D395">
         <v>189.358</v>
@@ -13877,7 +13877,7 @@
         <v>2547</v>
       </c>
       <c r="C396">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D396">
         <v>189.517</v>
@@ -13909,7 +13909,7 @@
         <v>2547.125</v>
       </c>
       <c r="C397">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D397">
         <v>185.922</v>
@@ -13941,7 +13941,7 @@
         <v>2547.25</v>
       </c>
       <c r="C398">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D398">
         <v>182.934</v>
@@ -13973,7 +13973,7 @@
         <v>2548</v>
       </c>
       <c r="C399">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D399">
         <v>187.422</v>
@@ -14005,7 +14005,7 @@
         <v>2548.125</v>
       </c>
       <c r="C400">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D400">
         <v>191.494</v>
@@ -14037,7 +14037,7 @@
         <v>2548.25</v>
       </c>
       <c r="C401">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D401">
         <v>196.788</v>
@@ -14069,7 +14069,7 @@
         <v>2548.875</v>
       </c>
       <c r="C402">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D402">
         <v>209.681</v>
@@ -14101,7 +14101,7 @@
         <v>2549</v>
       </c>
       <c r="C403">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D403">
         <v>226.167</v>
@@ -14133,7 +14133,7 @@
         <v>2549.125</v>
       </c>
       <c r="C404">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D404">
         <v>227.265</v>
@@ -14165,7 +14165,7 @@
         <v>2550</v>
       </c>
       <c r="C405">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D405">
         <v>224.231</v>
@@ -14197,7 +14197,7 @@
         <v>2550.125</v>
       </c>
       <c r="C406">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D406">
         <v>211.656</v>
@@ -14229,7 +14229,7 @@
         <v>2550.25</v>
       </c>
       <c r="C407">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D407">
         <v>209.697</v>
@@ -14261,7 +14261,7 @@
         <v>2551</v>
       </c>
       <c r="C408">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D408">
         <v>203.426</v>
@@ -14293,7 +14293,7 @@
         <v>2551.125</v>
       </c>
       <c r="C409">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D409">
         <v>196.786</v>
@@ -14325,7 +14325,7 @@
         <v>2551.25</v>
       </c>
       <c r="C410">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D410">
         <v>202.558</v>
@@ -14357,7 +14357,7 @@
         <v>2552.125</v>
       </c>
       <c r="C411">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D411">
         <v>205.121</v>
@@ -14389,7 +14389,7 @@
         <v>2552.25</v>
       </c>
       <c r="C412">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D412">
         <v>236.308</v>
@@ -14421,7 +14421,7 @@
         <v>2552.375</v>
       </c>
       <c r="C413">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D413">
         <v>238.167</v>
@@ -14453,7 +14453,7 @@
         <v>2553.25</v>
       </c>
       <c r="C414">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D414">
         <v>233.436</v>
@@ -14485,7 +14485,7 @@
         <v>2553.375</v>
       </c>
       <c r="C415">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D415">
         <v>189.345</v>
@@ -14517,7 +14517,7 @@
         <v>2553.5</v>
       </c>
       <c r="C416">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D416">
         <v>194.573</v>
@@ -14549,7 +14549,7 @@
         <v>2554</v>
       </c>
       <c r="C417">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D417">
         <v>202.383</v>
@@ -14581,7 +14581,7 @@
         <v>2554.125</v>
       </c>
       <c r="C418">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D418">
         <v>201.701</v>
@@ -14613,7 +14613,7 @@
         <v>2554.25</v>
       </c>
       <c r="C419">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D419">
         <v>199.152</v>
@@ -14645,7 +14645,7 @@
         <v>2554.5</v>
       </c>
       <c r="C420">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D420">
         <v>200.275</v>
@@ -14677,7 +14677,7 @@
         <v>2554.625</v>
       </c>
       <c r="C421">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D421">
         <v>210.141</v>
@@ -14709,7 +14709,7 @@
         <v>2554.75</v>
       </c>
       <c r="C422">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D422">
         <v>214.849</v>
@@ -14741,7 +14741,7 @@
         <v>2556</v>
       </c>
       <c r="C423">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D423">
         <v>215.899</v>
@@ -14773,7 +14773,7 @@
         <v>2556.125</v>
       </c>
       <c r="C424">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D424">
         <v>203.313</v>
@@ -14805,7 +14805,7 @@
         <v>2556.25</v>
       </c>
       <c r="C425">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D425">
         <v>207.325</v>
@@ -14837,7 +14837,7 @@
         <v>2556.875</v>
       </c>
       <c r="C426">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D426">
         <v>208.796</v>
@@ -14869,7 +14869,7 @@
         <v>2557</v>
       </c>
       <c r="C427">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D427">
         <v>206.54</v>
@@ -14901,7 +14901,7 @@
         <v>2557.125</v>
       </c>
       <c r="C428">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D428">
         <v>211.89</v>
@@ -14933,7 +14933,7 @@
         <v>2557.25</v>
       </c>
       <c r="C429">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D429">
         <v>216.394</v>
@@ -14965,7 +14965,7 @@
         <v>2557.375</v>
       </c>
       <c r="C430">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D430">
         <v>219.059</v>
@@ -14997,7 +14997,7 @@
         <v>2557.5</v>
       </c>
       <c r="C431">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D431">
         <v>221.301</v>
@@ -15029,7 +15029,7 @@
         <v>2557.625</v>
       </c>
       <c r="C432">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D432">
         <v>222.288</v>
@@ -15061,7 +15061,7 @@
         <v>2557.75</v>
       </c>
       <c r="C433">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D433">
         <v>219.019</v>
@@ -15093,7 +15093,7 @@
         <v>2557.875</v>
       </c>
       <c r="C434">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D434">
         <v>212.127</v>
@@ -15125,7 +15125,7 @@
         <v>2558</v>
       </c>
       <c r="C435">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D435">
         <v>206.949</v>
@@ -15157,7 +15157,7 @@
         <v>2558.125</v>
       </c>
       <c r="C436">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D436">
         <v>204.513</v>
@@ -15189,7 +15189,7 @@
         <v>2558.25</v>
       </c>
       <c r="C437">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D437">
         <v>200.94</v>
@@ -15221,7 +15221,7 @@
         <v>2558.375</v>
       </c>
       <c r="C438">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D438">
         <v>193.492</v>
@@ -15253,7 +15253,7 @@
         <v>2558.5</v>
       </c>
       <c r="C439">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D439">
         <v>185.071</v>
@@ -15285,7 +15285,7 @@
         <v>2558.625</v>
       </c>
       <c r="C440">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D440">
         <v>182.01</v>
@@ -15317,7 +15317,7 @@
         <v>2558.75</v>
       </c>
       <c r="C441">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D441">
         <v>185.571</v>
@@ -15349,7 +15349,7 @@
         <v>2558.875</v>
       </c>
       <c r="C442">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D442">
         <v>194.44</v>
@@ -15381,7 +15381,7 @@
         <v>2559</v>
       </c>
       <c r="C443">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D443">
         <v>204.926</v>
@@ -15413,7 +15413,7 @@
         <v>2559.125</v>
       </c>
       <c r="C444">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D444">
         <v>213.233</v>
@@ -15445,7 +15445,7 @@
         <v>2559.25</v>
       </c>
       <c r="C445">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D445">
         <v>216.993</v>
@@ -15477,7 +15477,7 @@
         <v>2560</v>
       </c>
       <c r="C446">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D446">
         <v>217.087</v>
@@ -15509,7 +15509,7 @@
         <v>2560.125</v>
       </c>
       <c r="C447">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D447">
         <v>201.586</v>
@@ -15541,7 +15541,7 @@
         <v>2560.25</v>
       </c>
       <c r="C448">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D448">
         <v>203.269</v>
@@ -15573,7 +15573,7 @@
         <v>2561</v>
       </c>
       <c r="C449">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D449">
         <v>203.825</v>
@@ -15605,7 +15605,7 @@
         <v>2561.125</v>
       </c>
       <c r="C450">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D450">
         <v>199.503</v>
@@ -15637,7 +15637,7 @@
         <v>2561.25</v>
       </c>
       <c r="C451">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D451">
         <v>201.476</v>
@@ -15669,7 +15669,7 @@
         <v>2562</v>
       </c>
       <c r="C452">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D452">
         <v>202.295</v>
@@ -15701,7 +15701,7 @@
         <v>2562.125</v>
       </c>
       <c r="C453">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D453">
         <v>199.093</v>
@@ -15733,7 +15733,7 @@
         <v>2562.25</v>
       </c>
       <c r="C454">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D454">
         <v>196.023</v>
@@ -15765,7 +15765,7 @@
         <v>2563</v>
       </c>
       <c r="C455">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D455">
         <v>193.823</v>
@@ -15797,7 +15797,7 @@
         <v>2563.125</v>
       </c>
       <c r="C456">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D456">
         <v>204.875</v>
@@ -15829,7 +15829,7 @@
         <v>2563.25</v>
       </c>
       <c r="C457">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D457">
         <v>200.661</v>
@@ -15861,7 +15861,7 @@
         <v>2563.75</v>
       </c>
       <c r="C458">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D458">
         <v>192.464</v>
@@ -15893,7 +15893,7 @@
         <v>2563.875</v>
       </c>
       <c r="C459">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D459">
         <v>158.541</v>
@@ -15925,7 +15925,7 @@
         <v>2564</v>
       </c>
       <c r="C460">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D460">
         <v>155.52</v>
@@ -15957,7 +15957,7 @@
         <v>2564.75</v>
       </c>
       <c r="C461">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D461">
         <v>155.098</v>
@@ -15989,7 +15989,7 @@
         <v>2564.875</v>
       </c>
       <c r="C462">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D462">
         <v>159.902</v>
@@ -16021,7 +16021,7 @@
         <v>2565</v>
       </c>
       <c r="C463">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D463">
         <v>160.393</v>
@@ -16053,7 +16053,7 @@
         <v>2566</v>
       </c>
       <c r="C464">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D464">
         <v>160.523</v>
@@ -16085,7 +16085,7 @@
         <v>2566.125</v>
       </c>
       <c r="C465">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D465">
         <v>172.429</v>
@@ -16117,7 +16117,7 @@
         <v>2566.25</v>
       </c>
       <c r="C466">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D466">
         <v>174.058</v>
@@ -16149,7 +16149,7 @@
         <v>2566.625</v>
       </c>
       <c r="C467">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D467">
         <v>174.191</v>
@@ -16181,7 +16181,7 @@
         <v>2566.75</v>
       </c>
       <c r="C468">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D468">
         <v>171.805</v>
@@ -16213,7 +16213,7 @@
         <v>2566.875</v>
       </c>
       <c r="C469">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D469">
         <v>171.844</v>
@@ -16245,7 +16245,7 @@
         <v>2567.625</v>
       </c>
       <c r="C470">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D470">
         <v>172.628</v>
@@ -16277,7 +16277,7 @@
         <v>2567.75</v>
       </c>
       <c r="C471">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D471">
         <v>164.314</v>
@@ -16309,7 +16309,7 @@
         <v>2567.875</v>
       </c>
       <c r="C472">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D472">
         <v>164.189</v>
@@ -16341,7 +16341,7 @@
         <v>2568.625</v>
       </c>
       <c r="C473">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D473">
         <v>164.181</v>
@@ -16373,7 +16373,7 @@
         <v>2568.75</v>
       </c>
       <c r="C474">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D474">
         <v>181.129</v>
@@ -16405,7 +16405,7 @@
         <v>2568.875</v>
       </c>
       <c r="C475">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D475">
         <v>181.484</v>
@@ -16437,7 +16437,7 @@
         <v>2570</v>
       </c>
       <c r="C476">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D476">
         <v>179.584</v>
@@ -16469,7 +16469,7 @@
         <v>2570.125</v>
       </c>
       <c r="C477">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D477">
         <v>194.686</v>
@@ -16501,7 +16501,7 @@
         <v>2570.25</v>
       </c>
       <c r="C478">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D478">
         <v>185.233</v>
@@ -16533,7 +16533,7 @@
         <v>2571.25</v>
       </c>
       <c r="C479">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D479">
         <v>178.96</v>
@@ -16565,7 +16565,7 @@
         <v>2571.375</v>
       </c>
       <c r="C480">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D480">
         <v>164.553</v>
@@ -16597,7 +16597,7 @@
         <v>2571.5</v>
       </c>
       <c r="C481">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D481">
         <v>167.477</v>
@@ -16629,7 +16629,7 @@
         <v>2572.125</v>
       </c>
       <c r="C482">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D482">
         <v>171.507</v>
@@ -16661,7 +16661,7 @@
         <v>2572.25</v>
       </c>
       <c r="C483">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D483">
         <v>178.792</v>
@@ -16693,7 +16693,7 @@
         <v>2572.375</v>
       </c>
       <c r="C484">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D484">
         <v>180.409</v>
@@ -16725,7 +16725,7 @@
         <v>2573</v>
       </c>
       <c r="C485">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D485">
         <v>180.39</v>
@@ -16757,7 +16757,7 @@
         <v>2573.125</v>
       </c>
       <c r="C486">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D486">
         <v>179.445</v>
@@ -16789,7 +16789,7 @@
         <v>2573.25</v>
       </c>
       <c r="C487">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D487">
         <v>175.719</v>
@@ -16821,7 +16821,7 @@
         <v>2574.125</v>
       </c>
       <c r="C488">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D488">
         <v>171.511</v>
@@ -16853,7 +16853,7 @@
         <v>2574.25</v>
       </c>
       <c r="C489">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D489">
         <v>169.824</v>
@@ -16885,7 +16885,7 @@
         <v>2574.375</v>
       </c>
       <c r="C490">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D490">
         <v>165.928</v>
@@ -16917,7 +16917,7 @@
         <v>2575.75</v>
       </c>
       <c r="C491">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D491">
         <v>162.779</v>
@@ -16949,7 +16949,7 @@
         <v>2575.875</v>
       </c>
       <c r="C492">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D492">
         <v>178.003</v>
@@ -16981,7 +16981,7 @@
         <v>2576</v>
       </c>
       <c r="C493">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D493">
         <v>174.519</v>
@@ -17013,7 +17013,7 @@
         <v>2576.375</v>
       </c>
       <c r="C494">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D494">
         <v>169.647</v>
@@ -17045,7 +17045,7 @@
         <v>2576.5</v>
       </c>
       <c r="C495">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D495">
         <v>166.337</v>
@@ -17077,7 +17077,7 @@
         <v>2576.625</v>
       </c>
       <c r="C496">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D496">
         <v>166.2</v>
@@ -17109,7 +17109,7 @@
         <v>2577.375</v>
       </c>
       <c r="C497">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D497">
         <v>166.478</v>
@@ -17141,7 +17141,7 @@
         <v>2577.5</v>
       </c>
       <c r="C498">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D498">
         <v>173.285</v>
@@ -17173,7 +17173,7 @@
         <v>2577.625</v>
       </c>
       <c r="C499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D499">
         <v>172.173</v>
@@ -17205,7 +17205,7 @@
         <v>2578.375</v>
       </c>
       <c r="C500">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D500">
         <v>170.322</v>
@@ -17237,7 +17237,7 @@
         <v>2578.5</v>
       </c>
       <c r="C501">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D501">
         <v>176.621</v>
@@ -17269,7 +17269,7 @@
         <v>2578.625</v>
       </c>
       <c r="C502">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D502">
         <v>175.189</v>
@@ -17301,7 +17301,7 @@
         <v>2579.375</v>
       </c>
       <c r="C503">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D503">
         <v>172.771</v>
@@ -17333,7 +17333,7 @@
         <v>2579.5</v>
       </c>
       <c r="C504">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D504">
         <v>172.552</v>
@@ -17365,7 +17365,7 @@
         <v>2579.625</v>
       </c>
       <c r="C505">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D505">
         <v>182.054</v>
@@ -17397,7 +17397,7 @@
         <v>2580.125</v>
       </c>
       <c r="C506">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D506">
         <v>188.941</v>
@@ -17429,7 +17429,7 @@
         <v>2580.25</v>
       </c>
       <c r="C507">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D507">
         <v>173.683</v>
@@ -17461,7 +17461,7 @@
         <v>2580.375</v>
       </c>
       <c r="C508">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D508">
         <v>170.007</v>
@@ -17493,7 +17493,7 @@
         <v>2581</v>
       </c>
       <c r="C509">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D509">
         <v>171.452</v>
@@ -17525,7 +17525,7 @@
         <v>2581.125</v>
       </c>
       <c r="C510">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D510">
         <v>188.632</v>
@@ -17557,7 +17557,7 @@
         <v>2581.25</v>
       </c>
       <c r="C511">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D511">
         <v>185.84</v>
@@ -17589,7 +17589,7 @@
         <v>2582.125</v>
       </c>
       <c r="C512">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D512">
         <v>182.989</v>
@@ -17621,7 +17621,7 @@
         <v>2582.25</v>
       </c>
       <c r="C513">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D513">
         <v>188.116</v>
@@ -17653,7 +17653,7 @@
         <v>2582.375</v>
       </c>
       <c r="C514">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D514">
         <v>183.574</v>
@@ -17685,7 +17685,7 @@
         <v>2583</v>
       </c>
       <c r="C515">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D515">
         <v>177.455</v>
@@ -17717,7 +17717,7 @@
         <v>2583.125</v>
       </c>
       <c r="C516">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D516">
         <v>174.52</v>
@@ -17749,7 +17749,7 @@
         <v>2583.25</v>
       </c>
       <c r="C517">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D517">
         <v>176.783</v>
@@ -17781,7 +17781,7 @@
         <v>2584</v>
       </c>
       <c r="C518">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D518">
         <v>181.318</v>
@@ -17813,7 +17813,7 @@
         <v>2584.125</v>
       </c>
       <c r="C519">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D519">
         <v>173.995</v>
@@ -17845,7 +17845,7 @@
         <v>2584.25</v>
       </c>
       <c r="C520">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D520">
         <v>169.614</v>
@@ -17877,7 +17877,7 @@
         <v>2584.875</v>
       </c>
       <c r="C521">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D521">
         <v>168.014</v>
@@ -17909,7 +17909,7 @@
         <v>2585</v>
       </c>
       <c r="C522">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D522">
         <v>183.465</v>
@@ -17941,7 +17941,7 @@
         <v>2585.125</v>
       </c>
       <c r="C523">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D523">
         <v>181.611</v>
@@ -17973,7 +17973,7 @@
         <v>2585.875</v>
       </c>
       <c r="C524">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D524">
         <v>178.709</v>
@@ -18005,7 +18005,7 @@
         <v>2586</v>
       </c>
       <c r="C525">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D525">
         <v>175.467</v>
@@ -18037,7 +18037,7 @@
         <v>2586.125</v>
       </c>
       <c r="C526">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D526">
         <v>175.689</v>
@@ -18069,7 +18069,7 @@
         <v>2586.875</v>
       </c>
       <c r="C527">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D527">
         <v>177.12</v>
@@ -18101,7 +18101,7 @@
         <v>2587</v>
       </c>
       <c r="C528">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D528">
         <v>172.485</v>
@@ -18133,7 +18133,7 @@
         <v>2587.125</v>
       </c>
       <c r="C529">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D529">
         <v>175.887</v>
@@ -18165,7 +18165,7 @@
         <v>2587.5</v>
       </c>
       <c r="C530">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D530">
         <v>178.931</v>
@@ -18197,7 +18197,7 @@
         <v>2587.625</v>
       </c>
       <c r="C531">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D531">
         <v>174.865</v>
@@ -18229,7 +18229,7 @@
         <v>2587.75</v>
       </c>
       <c r="C532">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D532">
         <v>177.89</v>
@@ -18261,7 +18261,7 @@
         <v>2588.25</v>
       </c>
       <c r="C533">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D533">
         <v>182.521</v>
@@ -18293,7 +18293,7 @@
         <v>2588.375</v>
       </c>
       <c r="C534">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D534">
         <v>182.611</v>
@@ -18325,7 +18325,7 @@
         <v>2588.5</v>
       </c>
       <c r="C535">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D535">
         <v>182.077</v>
@@ -18357,7 +18357,7 @@
         <v>2589.25</v>
       </c>
       <c r="C536">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D536">
         <v>184.195</v>
@@ -18389,7 +18389,7 @@
         <v>2589.375</v>
       </c>
       <c r="C537">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D537">
         <v>180.289</v>
@@ -18421,7 +18421,7 @@
         <v>2589.5</v>
       </c>
       <c r="C538">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D538">
         <v>187.911</v>
@@ -18453,7 +18453,7 @@
         <v>2590</v>
       </c>
       <c r="C539">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D539">
         <v>196.425</v>
@@ -18485,7 +18485,7 @@
         <v>2590.125</v>
       </c>
       <c r="C540">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D540">
         <v>199.122</v>
@@ -18517,7 +18517,7 @@
         <v>2590.25</v>
       </c>
       <c r="C541">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D541">
         <v>203.248</v>
@@ -18549,7 +18549,7 @@
         <v>2590.75</v>
       </c>
       <c r="C542">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D542">
         <v>207.846</v>
@@ -18581,7 +18581,7 @@
         <v>2590.875</v>
       </c>
       <c r="C543">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D543">
         <v>206.391</v>
@@ -18613,7 +18613,7 @@
         <v>2591</v>
       </c>
       <c r="C544">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D544">
         <v>206.396</v>
@@ -18645,7 +18645,7 @@
         <v>2591.5</v>
       </c>
       <c r="C545">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D545">
         <v>208.832</v>
@@ -18677,7 +18677,7 @@
         <v>2591.625</v>
       </c>
       <c r="C546">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D546">
         <v>224.591</v>
@@ -18709,7 +18709,7 @@
         <v>2591.75</v>
       </c>
       <c r="C547">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D547">
         <v>221.792</v>
@@ -18741,7 +18741,7 @@
         <v>2592.125</v>
       </c>
       <c r="C548">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D548">
         <v>219.453</v>
@@ -18773,7 +18773,7 @@
         <v>2592.25</v>
       </c>
       <c r="C549">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D549">
         <v>206.544</v>
@@ -18805,7 +18805,7 @@
         <v>2592.375</v>
       </c>
       <c r="C550">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D550">
         <v>198.637</v>
@@ -18837,7 +18837,7 @@
         <v>2592.875</v>
       </c>
       <c r="C551">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D551">
         <v>192.166</v>
@@ -18869,7 +18869,7 @@
         <v>2593</v>
       </c>
       <c r="C552">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D552">
         <v>197.125</v>
@@ -18901,7 +18901,7 @@
         <v>2593.125</v>
       </c>
       <c r="C553">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D553">
         <v>196.612</v>
@@ -18933,7 +18933,7 @@
         <v>2594</v>
       </c>
       <c r="C554">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D554">
         <v>193.395</v>
@@ -18965,7 +18965,7 @@
         <v>2594.125</v>
       </c>
       <c r="C555">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D555">
         <v>204.756</v>
@@ -18997,7 +18997,7 @@
         <v>2594.25</v>
       </c>
       <c r="C556">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D556">
         <v>205.576</v>
@@ -19029,7 +19029,7 @@
         <v>2594.875</v>
       </c>
       <c r="C557">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D557">
         <v>202.104</v>
@@ -19061,7 +19061,7 @@
         <v>2595</v>
       </c>
       <c r="C558">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D558">
         <v>199.093</v>
@@ -19093,7 +19093,7 @@
         <v>2595.125</v>
       </c>
       <c r="C559">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D559">
         <v>198.877</v>
@@ -19125,7 +19125,7 @@
         <v>2595.25</v>
       </c>
       <c r="C560">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D560">
         <v>198.393</v>
@@ -19157,7 +19157,7 @@
         <v>2595.375</v>
       </c>
       <c r="C561">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D561">
         <v>198.058</v>
@@ -19189,7 +19189,7 @@
         <v>2595.5</v>
       </c>
       <c r="C562">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D562">
         <v>195.853</v>
@@ -19221,7 +19221,7 @@
         <v>2595.625</v>
       </c>
       <c r="C563">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D563">
         <v>192.33</v>
@@ -19253,7 +19253,7 @@
         <v>2595.75</v>
       </c>
       <c r="C564">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D564">
         <v>189.898</v>
@@ -19285,7 +19285,7 @@
         <v>2595.875</v>
       </c>
       <c r="C565">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D565">
         <v>189.222</v>
@@ -19317,7 +19317,7 @@
         <v>2596</v>
       </c>
       <c r="C566">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D566">
         <v>188.601</v>
@@ -19349,7 +19349,7 @@
         <v>2596.125</v>
       </c>
       <c r="C567">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D567">
         <v>186.891</v>
@@ -19381,7 +19381,7 @@
         <v>2596.25</v>
       </c>
       <c r="C568">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D568">
         <v>185.888</v>
@@ -19413,7 +19413,7 @@
         <v>2596.375</v>
       </c>
       <c r="C569">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D569">
         <v>187.297</v>
@@ -19445,7 +19445,7 @@
         <v>2596.5</v>
       </c>
       <c r="C570">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D570">
         <v>190.715</v>
@@ -19477,7 +19477,7 @@
         <v>2596.625</v>
       </c>
       <c r="C571">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D571">
         <v>192.871</v>
@@ -19509,7 +19509,7 @@
         <v>2596.875</v>
       </c>
       <c r="C572">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D572">
         <v>191.861</v>
@@ -19541,7 +19541,7 @@
         <v>2597</v>
       </c>
       <c r="C573">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D573">
         <v>182.962</v>
@@ -19573,7 +19573,7 @@
         <v>2597.125</v>
       </c>
       <c r="C574">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D574">
         <v>178.033</v>
@@ -19605,7 +19605,7 @@
         <v>2597.5</v>
       </c>
       <c r="C575">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D575">
         <v>174.576</v>
@@ -19637,7 +19637,7 @@
         <v>2597.625</v>
       </c>
       <c r="C576">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D576">
         <v>176.678</v>
@@ -19669,7 +19669,7 @@
         <v>2597.75</v>
       </c>
       <c r="C577">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D577">
         <v>177.352</v>
@@ -19701,7 +19701,7 @@
         <v>2598</v>
       </c>
       <c r="C578">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D578">
         <v>177.064</v>
@@ -19733,7 +19733,7 @@
         <v>2598.125</v>
       </c>
       <c r="C579">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D579">
         <v>179.621</v>
@@ -19765,7 +19765,7 @@
         <v>2598.25</v>
       </c>
       <c r="C580">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D580">
         <v>186.635</v>
@@ -19797,7 +19797,7 @@
         <v>2599</v>
       </c>
       <c r="C581">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D581">
         <v>197.623</v>
@@ -19829,7 +19829,7 @@
         <v>2599.125</v>
       </c>
       <c r="C582">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D582">
         <v>189.561</v>
@@ -19861,7 +19861,7 @@
         <v>2599.25</v>
       </c>
       <c r="C583">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D583">
         <v>190.65</v>
@@ -19893,7 +19893,7 @@
         <v>2600.125</v>
       </c>
       <c r="C584">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D584">
         <v>192.043</v>
@@ -19925,7 +19925,7 @@
         <v>2600.25</v>
       </c>
       <c r="C585">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D585">
         <v>215.668</v>
@@ -19957,7 +19957,7 @@
         <v>2600.375</v>
       </c>
       <c r="C586">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D586">
         <v>218.968</v>
@@ -19989,7 +19989,7 @@
         <v>2601.25</v>
       </c>
       <c r="C587">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D587">
         <v>221.128</v>
@@ -20021,7 +20021,7 @@
         <v>2601.375</v>
       </c>
       <c r="C588">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D588">
         <v>208.536</v>
@@ -20053,7 +20053,7 @@
         <v>2601.5</v>
       </c>
       <c r="C589">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D589">
         <v>204.895</v>
@@ -20085,7 +20085,7 @@
         <v>2602.125</v>
       </c>
       <c r="C590">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D590">
         <v>201.955</v>
@@ -20117,7 +20117,7 @@
         <v>2602.25</v>
       </c>
       <c r="C591">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D591">
         <v>215.49</v>
@@ -20149,7 +20149,7 @@
         <v>2602.375</v>
       </c>
       <c r="C592">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D592">
         <v>215.713</v>
@@ -20181,7 +20181,7 @@
         <v>2602.875</v>
       </c>
       <c r="C593">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D593">
         <v>212.872</v>
@@ -20213,7 +20213,7 @@
         <v>2603</v>
       </c>
       <c r="C594">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D594">
         <v>199.345</v>
@@ -20245,7 +20245,7 @@
         <v>2603.125</v>
       </c>
       <c r="C595">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D595">
         <v>202.089</v>
@@ -20277,7 +20277,7 @@
         <v>2603.375</v>
       </c>
       <c r="C596">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D596">
         <v>206.246</v>
@@ -20309,7 +20309,7 @@
         <v>2603.5</v>
       </c>
       <c r="C597">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D597">
         <v>211.898</v>
@@ -20341,7 +20341,7 @@
         <v>2603.625</v>
       </c>
       <c r="C598">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D598">
         <v>211.615</v>
@@ -20373,7 +20373,7 @@
         <v>2604.625</v>
       </c>
       <c r="C599">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D599">
         <v>209.679</v>
@@ -20405,7 +20405,7 @@
         <v>2604.75</v>
       </c>
       <c r="C600">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D600">
         <v>207.178</v>
@@ -20437,7 +20437,7 @@
         <v>2604.875</v>
       </c>
       <c r="C601">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D601">
         <v>215.454</v>
@@ -20469,7 +20469,7 @@
         <v>2605.625</v>
       </c>
       <c r="C602">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D602">
         <v>221.195</v>
@@ -20501,7 +20501,7 @@
         <v>2605.75</v>
       </c>
       <c r="C603">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D603">
         <v>214.896</v>
@@ -20533,7 +20533,7 @@
         <v>2605.875</v>
       </c>
       <c r="C604">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D604">
         <v>212.919</v>
@@ -20565,7 +20565,7 @@
         <v>2606.625</v>
       </c>
       <c r="C605">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D605">
         <v>215.747</v>
@@ -20597,7 +20597,7 @@
         <v>2606.75</v>
       </c>
       <c r="C606">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D606">
         <v>230.913</v>
@@ -20629,7 +20629,7 @@
         <v>2606.875</v>
       </c>
       <c r="C607">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D607">
         <v>227.116</v>
@@ -20661,7 +20661,7 @@
         <v>2607.625</v>
       </c>
       <c r="C608">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D608">
         <v>224.172</v>
@@ -20693,7 +20693,7 @@
         <v>2607.75</v>
       </c>
       <c r="C609">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D609">
         <v>223.06</v>
@@ -20725,7 +20725,7 @@
         <v>2607.875</v>
       </c>
       <c r="C610">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D610">
         <v>222.867</v>
@@ -20757,7 +20757,7 @@
         <v>2608.625</v>
       </c>
       <c r="C611">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D611">
         <v>222.311</v>
@@ -20789,7 +20789,7 @@
         <v>2608.75</v>
       </c>
       <c r="C612">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D612">
         <v>203.647</v>
@@ -20821,7 +20821,7 @@
         <v>2608.875</v>
       </c>
       <c r="C613">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D613">
         <v>199.438</v>
@@ -20853,7 +20853,7 @@
         <v>2609.5</v>
       </c>
       <c r="C614">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D614">
         <v>198.176</v>
@@ -20885,7 +20885,7 @@
         <v>2609.625</v>
       </c>
       <c r="C615">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D615">
         <v>175.398</v>
@@ -20917,7 +20917,7 @@
         <v>2609.75</v>
       </c>
       <c r="C616">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D616">
         <v>182.158</v>
@@ -20949,7 +20949,7 @@
         <v>2610.5</v>
       </c>
       <c r="C617">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D617">
         <v>188.019</v>
@@ -20981,7 +20981,7 @@
         <v>2610.625</v>
       </c>
       <c r="C618">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D618">
         <v>205.167</v>
@@ -21013,7 +21013,7 @@
         <v>2610.75</v>
       </c>
       <c r="C619">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D619">
         <v>215.214</v>
@@ -21045,7 +21045,7 @@
         <v>2611.5</v>
       </c>
       <c r="C620">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D620">
         <v>224.492</v>
@@ -21077,7 +21077,7 @@
         <v>2611.625</v>
       </c>
       <c r="C621">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D621">
         <v>247.499</v>
@@ -21109,7 +21109,7 @@
         <v>2611.75</v>
       </c>
       <c r="C622">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D622">
         <v>247.18</v>
@@ -21141,7 +21141,7 @@
         <v>2612.5</v>
       </c>
       <c r="C623">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D623">
         <v>245.463</v>
@@ -21173,7 +21173,7 @@
         <v>2612.625</v>
       </c>
       <c r="C624">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D624">
         <v>231.26</v>
@@ -21205,7 +21205,7 @@
         <v>2612.75</v>
       </c>
       <c r="C625">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D625">
         <v>236.597</v>
@@ -21237,7 +21237,7 @@
         <v>2613.5</v>
       </c>
       <c r="C626">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D626">
         <v>242.518</v>
@@ -21269,7 +21269,7 @@
         <v>2613.625</v>
       </c>
       <c r="C627">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D627">
         <v>240.104</v>
@@ -21301,7 +21301,7 @@
         <v>2613.75</v>
       </c>
       <c r="C628">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D628">
         <v>235.295</v>
@@ -21333,7 +21333,7 @@
         <v>2614.625</v>
       </c>
       <c r="C629">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D629">
         <v>232.853</v>
@@ -21365,7 +21365,7 @@
         <v>2614.75</v>
       </c>
       <c r="C630">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D630">
         <v>342.241</v>
@@ -21397,7 +21397,7 @@
         <v>2614.875</v>
       </c>
       <c r="C631">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D631">
         <v>383.445</v>
@@ -21429,7 +21429,7 @@
         <v>2615</v>
       </c>
       <c r="C632">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D632">
         <v>418.372</v>
@@ -21461,7 +21461,7 @@
         <v>2615.125</v>
       </c>
       <c r="C633">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D633">
         <v>439.984</v>
@@ -21493,7 +21493,7 @@
         <v>2615.25</v>
       </c>
       <c r="C634">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D634">
         <v>435.24</v>
@@ -21525,7 +21525,7 @@
         <v>2615.375</v>
       </c>
       <c r="C635">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D635">
         <v>395.534</v>
@@ -21557,7 +21557,7 @@
         <v>2615.5</v>
       </c>
       <c r="C636">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D636">
         <v>326.75</v>
@@ -21589,7 +21589,7 @@
         <v>2615.625</v>
       </c>
       <c r="C637">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D637">
         <v>256.282</v>
@@ -21621,7 +21621,7 @@
         <v>2615.75</v>
       </c>
       <c r="C638">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D638">
         <v>213.388</v>
@@ -21653,7 +21653,7 @@
         <v>2615.875</v>
       </c>
       <c r="C639">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D639">
         <v>203.697</v>
@@ -21685,7 +21685,7 @@
         <v>2616</v>
       </c>
       <c r="C640">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D640">
         <v>210.302</v>
@@ -21717,7 +21717,7 @@
         <v>2616.125</v>
       </c>
       <c r="C641">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D641">
         <v>214.836</v>
@@ -21749,7 +21749,7 @@
         <v>2616.25</v>
       </c>
       <c r="C642">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D642">
         <v>213.092</v>
@@ -21781,7 +21781,7 @@
         <v>2616.375</v>
       </c>
       <c r="C643">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D643">
         <v>207.351</v>
@@ -21813,7 +21813,7 @@
         <v>2616.5</v>
       </c>
       <c r="C644">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D644">
         <v>198.681</v>
@@ -21845,7 +21845,7 @@
         <v>2616.625</v>
       </c>
       <c r="C645">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D645">
         <v>188.415</v>
@@ -21877,7 +21877,7 @@
         <v>2616.75</v>
       </c>
       <c r="C646">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D646">
         <v>182.427</v>
@@ -21909,7 +21909,7 @@
         <v>2616.875</v>
       </c>
       <c r="C647">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D647">
         <v>184.242</v>
@@ -21941,7 +21941,7 @@
         <v>2617.625</v>
       </c>
       <c r="C648">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D648">
         <v>190.967</v>
@@ -21973,7 +21973,7 @@
         <v>2617.75</v>
       </c>
       <c r="C649">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D649">
         <v>199.499</v>
@@ -22005,7 +22005,7 @@
         <v>2617.875</v>
       </c>
       <c r="C650">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D650">
         <v>202.452</v>
@@ -22037,7 +22037,7 @@
         <v>2618.5</v>
       </c>
       <c r="C651">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D651">
         <v>201.064</v>
@@ -22069,7 +22069,7 @@
         <v>2618.625</v>
       </c>
       <c r="C652">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D652">
         <v>174.656</v>
@@ -22101,7 +22101,7 @@
         <v>2618.75</v>
       </c>
       <c r="C653">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D653">
         <v>168.856</v>
@@ -22133,7 +22133,7 @@
         <v>2619.625</v>
       </c>
       <c r="C654">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D654">
         <v>162.439</v>
@@ -22165,7 +22165,7 @@
         <v>2619.75</v>
       </c>
       <c r="C655">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D655">
         <v>142.771</v>
@@ -22197,7 +22197,7 @@
         <v>2619.875</v>
       </c>
       <c r="C656">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D656">
         <v>138.054</v>
@@ -22229,7 +22229,7 @@
         <v>2620.5</v>
       </c>
       <c r="C657">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D657">
         <v>134.219</v>
@@ -22261,7 +22261,7 @@
         <v>2620.625</v>
       </c>
       <c r="C658">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D658">
         <v>158.97</v>
@@ -22293,7 +22293,7 @@
         <v>2620.75</v>
       </c>
       <c r="C659">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D659">
         <v>168.608</v>
@@ -22325,7 +22325,7 @@
         <v>2864.75</v>
       </c>
       <c r="C660">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D660">
         <v>186.334</v>
@@ -22357,7 +22357,7 @@
         <v>2865</v>
       </c>
       <c r="C661">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D661">
         <v>183.139</v>
@@ -22389,7 +22389,7 @@
         <v>2865.375</v>
       </c>
       <c r="C662">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D662">
         <v>180.382</v>
@@ -22421,7 +22421,7 @@
         <v>2865.5</v>
       </c>
       <c r="C663">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D663">
         <v>178.409</v>
@@ -22453,7 +22453,7 @@
         <v>2865.625</v>
       </c>
       <c r="C664">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D664">
         <v>178.192</v>
@@ -22485,7 +22485,7 @@
         <v>2866.375</v>
       </c>
       <c r="C665">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D665">
         <v>152.601</v>
@@ -22517,7 +22517,7 @@
         <v>2866.5</v>
       </c>
       <c r="C666">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D666">
         <v>133.628</v>
@@ -22549,7 +22549,7 @@
         <v>2866.75</v>
       </c>
       <c r="C667">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D667">
         <v>104.356</v>
@@ -22581,7 +22581,7 @@
         <v>2867.125</v>
       </c>
       <c r="C668">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D668">
         <v>115.596</v>
@@ -22613,7 +22613,7 @@
         <v>2867.25</v>
       </c>
       <c r="C669">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D669">
         <v>131.687</v>
@@ -22645,7 +22645,7 @@
         <v>2867.375</v>
       </c>
       <c r="C670">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D670">
         <v>149.31</v>
@@ -22677,7 +22677,7 @@
         <v>2867.625</v>
       </c>
       <c r="C671">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D671">
         <v>177.197</v>
@@ -22709,7 +22709,7 @@
         <v>2867.875</v>
       </c>
       <c r="C672">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D672">
         <v>192.797</v>
@@ -22741,7 +22741,7 @@
         <v>2868</v>
       </c>
       <c r="C673">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D673">
         <v>198.527</v>
@@ -22773,7 +22773,7 @@
         <v>2868.25</v>
       </c>
       <c r="C674">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D674">
         <v>202.489</v>
@@ -22805,7 +22805,7 @@
         <v>2868.375</v>
       </c>
       <c r="C675">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D675">
         <v>200.754</v>
@@ -22837,7 +22837,7 @@
         <v>2868.625</v>
       </c>
       <c r="C676">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D676">
         <v>198.02</v>
@@ -22869,7 +22869,7 @@
         <v>2868.75</v>
       </c>
       <c r="C677">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D677">
         <v>199.364</v>
@@ -22901,7 +22901,7 @@
         <v>2869</v>
       </c>
       <c r="C678">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D678">
         <v>203.933</v>
@@ -22933,7 +22933,7 @@
         <v>2869.25</v>
       </c>
       <c r="C679">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D679">
         <v>200.315</v>
@@ -22965,7 +22965,7 @@
         <v>2869.375</v>
       </c>
       <c r="C680">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D680">
         <v>199.042</v>
@@ -22997,7 +22997,7 @@
         <v>2869.5</v>
       </c>
       <c r="C681">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D681">
         <v>200.104</v>
@@ -23029,7 +23029,7 @@
         <v>2869.75</v>
       </c>
       <c r="C682">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D682">
         <v>203.809</v>
@@ -23061,7 +23061,7 @@
         <v>2869.875</v>
       </c>
       <c r="C683">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D683">
         <v>202.465</v>
@@ -23093,7 +23093,7 @@
         <v>2870</v>
       </c>
       <c r="C684">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D684">
         <v>198.784</v>
@@ -23125,7 +23125,7 @@
         <v>2870.25</v>
       </c>
       <c r="C685">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D685">
         <v>193.824</v>
@@ -23157,7 +23157,7 @@
         <v>2870.375</v>
       </c>
       <c r="C686">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D686">
         <v>194.304</v>
@@ -23189,7 +23189,7 @@
         <v>2870.625</v>
       </c>
       <c r="C687">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D687">
         <v>195.741</v>
@@ -23221,7 +23221,7 @@
         <v>2870.875</v>
       </c>
       <c r="C688">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D688">
         <v>199.771</v>
@@ -23253,7 +23253,7 @@
         <v>2871</v>
       </c>
       <c r="C689">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D689">
         <v>204.394</v>
@@ -23285,7 +23285,7 @@
         <v>2871.25</v>
       </c>
       <c r="C690">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D690">
         <v>211.455</v>
@@ -23317,7 +23317,7 @@
         <v>2871.5</v>
       </c>
       <c r="C691">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D691">
         <v>226.782</v>
@@ -23349,7 +23349,7 @@
         <v>2871.625</v>
       </c>
       <c r="C692">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D692">
         <v>230.538</v>
@@ -23381,7 +23381,7 @@
         <v>2871.75</v>
       </c>
       <c r="C693">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D693">
         <v>224.608</v>
@@ -23413,7 +23413,7 @@
         <v>2872</v>
       </c>
       <c r="C694">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D694">
         <v>200.83</v>
@@ -23445,7 +23445,7 @@
         <v>2872.125</v>
       </c>
       <c r="C695">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D695">
         <v>194.706</v>
@@ -23477,7 +23477,7 @@
         <v>2872.25</v>
       </c>
       <c r="C696">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D696">
         <v>193.199</v>
@@ -23509,7 +23509,7 @@
         <v>2874.125</v>
       </c>
       <c r="C697">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D697">
         <v>187.071</v>
@@ -23541,7 +23541,7 @@
         <v>2874.25</v>
       </c>
       <c r="C698">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D698">
         <v>186.125</v>
@@ -23573,7 +23573,7 @@
         <v>2874.375</v>
       </c>
       <c r="C699">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D699">
         <v>185.95</v>
@@ -23605,7 +23605,7 @@
         <v>2874.5</v>
       </c>
       <c r="C700">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D700">
         <v>185.556</v>
@@ -23637,7 +23637,7 @@
         <v>2874.625</v>
       </c>
       <c r="C701">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D701">
         <v>185.417</v>
@@ -23669,7 +23669,7 @@
         <v>2874.75</v>
       </c>
       <c r="C702">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D702">
         <v>186.492</v>
@@ -23701,7 +23701,7 @@
         <v>2875</v>
       </c>
       <c r="C703">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D703">
         <v>190.021</v>
@@ -23733,7 +23733,7 @@
         <v>2875.125</v>
       </c>
       <c r="C704">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D704">
         <v>189.493</v>
@@ -23765,7 +23765,7 @@
         <v>2875.25</v>
       </c>
       <c r="C705">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D705">
         <v>189.136</v>
@@ -23797,7 +23797,7 @@
         <v>2875.5</v>
       </c>
       <c r="C706">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D706">
         <v>191.197</v>
@@ -23829,7 +23829,7 @@
         <v>2875.625</v>
       </c>
       <c r="C707">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D707">
         <v>189.202</v>
@@ -23861,7 +23861,7 @@
         <v>2875.75</v>
       </c>
       <c r="C708">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D708">
         <v>185.499</v>
@@ -23893,7 +23893,7 @@
         <v>2876</v>
       </c>
       <c r="C709">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D709">
         <v>181.968</v>
@@ -23925,7 +23925,7 @@
         <v>2876.125</v>
       </c>
       <c r="C710">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D710">
         <v>182.889</v>
@@ -23957,7 +23957,7 @@
         <v>2876.25</v>
       </c>
       <c r="C711">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D711">
         <v>184.038</v>
@@ -23989,7 +23989,7 @@
         <v>2876.5</v>
       </c>
       <c r="C712">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D712">
         <v>180.435</v>
@@ -24021,7 +24021,7 @@
         <v>2876.625</v>
       </c>
       <c r="C713">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D713">
         <v>173.312</v>
@@ -24053,7 +24053,7 @@
         <v>2876.75</v>
       </c>
       <c r="C714">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D714">
         <v>164.72</v>
@@ -24085,7 +24085,7 @@
         <v>2877.625</v>
       </c>
       <c r="C715">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D715">
         <v>180.531</v>
@@ -24117,7 +24117,7 @@
         <v>2877.75</v>
       </c>
       <c r="C716">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D716">
         <v>185.464</v>
@@ -24149,7 +24149,7 @@
         <v>2877.875</v>
       </c>
       <c r="C717">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D717">
         <v>189.524</v>
@@ -24181,7 +24181,7 @@
         <v>2878</v>
       </c>
       <c r="C718">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D718">
         <v>189.772</v>
@@ -24213,7 +24213,7 @@
         <v>2878.125</v>
       </c>
       <c r="C719">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D719">
         <v>187.322</v>
@@ -24245,7 +24245,7 @@
         <v>2878.25</v>
       </c>
       <c r="C720">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D720">
         <v>184.482</v>
@@ -24277,7 +24277,7 @@
         <v>2878.375</v>
       </c>
       <c r="C721">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D721">
         <v>181.292</v>
@@ -24309,7 +24309,7 @@
         <v>2878.5</v>
       </c>
       <c r="C722">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D722">
         <v>177.188</v>
@@ -24341,7 +24341,7 @@
         <v>2878.625</v>
       </c>
       <c r="C723">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D723">
         <v>173.101</v>
@@ -24373,7 +24373,7 @@
         <v>2880</v>
       </c>
       <c r="C724">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D724">
         <v>176.698</v>
@@ -24405,7 +24405,7 @@
         <v>2880.125</v>
       </c>
       <c r="C725">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D725">
         <v>180.847</v>
@@ -24437,7 +24437,7 @@
         <v>2880.25</v>
       </c>
       <c r="C726">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D726">
         <v>185.538</v>
@@ -24469,7 +24469,7 @@
         <v>2883.125</v>
       </c>
       <c r="C727">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D727">
         <v>186.201</v>
@@ -24501,7 +24501,7 @@
         <v>2883.25</v>
       </c>
       <c r="C728">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D728">
         <v>188.081</v>
@@ -24533,7 +24533,7 @@
         <v>2883.375</v>
       </c>
       <c r="C729">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D729">
         <v>189.515</v>
@@ -24565,7 +24565,7 @@
         <v>2883.5</v>
       </c>
       <c r="C730">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D730">
         <v>190.817</v>
@@ -24597,7 +24597,7 @@
         <v>2883.625</v>
       </c>
       <c r="C731">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D731">
         <v>193.05</v>
@@ -24629,7 +24629,7 @@
         <v>2884</v>
       </c>
       <c r="C732">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D732">
         <v>185.804</v>
@@ -24661,7 +24661,7 @@
         <v>2884.125</v>
       </c>
       <c r="C733">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D733">
         <v>180.803</v>
@@ -24693,7 +24693,7 @@
         <v>2884.25</v>
       </c>
       <c r="C734">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D734">
         <v>179.035</v>
@@ -24725,7 +24725,7 @@
         <v>2884.75</v>
       </c>
       <c r="C735">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D735">
         <v>191.306</v>
@@ -24757,7 +24757,7 @@
         <v>2884.875</v>
       </c>
       <c r="C736">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D736">
         <v>191.494</v>
@@ -24789,7 +24789,7 @@
         <v>2886.125</v>
       </c>
       <c r="C737">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D737">
         <v>190.466</v>
@@ -24821,7 +24821,7 @@
         <v>2886.25</v>
       </c>
       <c r="C738">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D738">
         <v>191.143</v>
@@ -24853,7 +24853,7 @@
         <v>2886.375</v>
       </c>
       <c r="C739">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D739">
         <v>190.942</v>
@@ -24885,7 +24885,7 @@
         <v>2886.75</v>
       </c>
       <c r="C740">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D740">
         <v>190.201</v>
@@ -24917,7 +24917,7 @@
         <v>2886.875</v>
       </c>
       <c r="C741">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D741">
         <v>191.312</v>
@@ -24949,7 +24949,7 @@
         <v>2887</v>
       </c>
       <c r="C742">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D742">
         <v>190.751</v>
@@ -24981,7 +24981,7 @@
         <v>2887.875</v>
       </c>
       <c r="C743">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D743">
         <v>184.363</v>
@@ -25013,7 +25013,7 @@
         <v>2888</v>
       </c>
       <c r="C744">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D744">
         <v>185.138</v>
@@ -25045,7 +25045,7 @@
         <v>2888.125</v>
       </c>
       <c r="C745">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D745">
         <v>184.536</v>
@@ -25077,7 +25077,7 @@
         <v>2889</v>
       </c>
       <c r="C746">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D746">
         <v>189.27</v>
@@ -25109,7 +25109,7 @@
         <v>2889.125</v>
       </c>
       <c r="C747">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D747">
         <v>187.888</v>
@@ -25141,7 +25141,7 @@
         <v>2889.25</v>
       </c>
       <c r="C748">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D748">
         <v>186.128</v>
@@ -25173,7 +25173,7 @@
         <v>2890</v>
       </c>
       <c r="C749">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D749">
         <v>180.871</v>
@@ -25205,7 +25205,7 @@
         <v>2890.125</v>
       </c>
       <c r="C750">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D750">
         <v>183.39</v>
@@ -25237,7 +25237,7 @@
         <v>2890.25</v>
       </c>
       <c r="C751">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D751">
         <v>185.988</v>
@@ -25269,7 +25269,7 @@
         <v>2891</v>
       </c>
       <c r="C752">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D752">
         <v>187.658</v>
@@ -25301,7 +25301,7 @@
         <v>2891.125</v>
       </c>
       <c r="C753">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D753">
         <v>185.36</v>
@@ -25333,7 +25333,7 @@
         <v>2891.25</v>
       </c>
       <c r="C754">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D754">
         <v>185.304</v>
@@ -25365,7 +25365,7 @@
         <v>2892.125</v>
       </c>
       <c r="C755">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D755">
         <v>190.088</v>
@@ -25397,7 +25397,7 @@
         <v>2892.25</v>
       </c>
       <c r="C756">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D756">
         <v>191.606</v>
@@ -25429,7 +25429,7 @@
         <v>2892.375</v>
       </c>
       <c r="C757">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D757">
         <v>192.134</v>
@@ -25461,7 +25461,7 @@
         <v>2893</v>
       </c>
       <c r="C758">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D758">
         <v>206.04</v>
@@ -25493,7 +25493,7 @@
         <v>2893.125</v>
       </c>
       <c r="C759">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D759">
         <v>206.639</v>
@@ -25525,7 +25525,7 @@
         <v>2893.25</v>
       </c>
       <c r="C760">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D760">
         <v>206.094</v>
@@ -25557,7 +25557,7 @@
         <v>2893.875</v>
       </c>
       <c r="C761">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D761">
         <v>197.798</v>
@@ -25589,7 +25589,7 @@
         <v>2894</v>
       </c>
       <c r="C762">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D762">
         <v>198.72</v>
@@ -25621,7 +25621,7 @@
         <v>2894.125</v>
       </c>
       <c r="C763">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D763">
         <v>201.937</v>
@@ -25653,7 +25653,7 @@
         <v>2894.625</v>
       </c>
       <c r="C764">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D764">
         <v>225.633</v>
@@ -25685,7 +25685,7 @@
         <v>2894.75</v>
       </c>
       <c r="C765">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D765">
         <v>232.297</v>
@@ -25717,7 +25717,7 @@
         <v>2894.875</v>
       </c>
       <c r="C766">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D766">
         <v>237.981</v>
@@ -25749,7 +25749,7 @@
         <v>2895.5</v>
       </c>
       <c r="C767">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D767">
         <v>230.469</v>
@@ -25781,7 +25781,7 @@
         <v>2895.625</v>
       </c>
       <c r="C768">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D768">
         <v>219.259</v>
@@ -25813,7 +25813,7 @@
         <v>2895.75</v>
       </c>
       <c r="C769">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D769">
         <v>211.028</v>
@@ -25845,7 +25845,7 @@
         <v>2896.5</v>
       </c>
       <c r="C770">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D770">
         <v>202.826</v>
@@ -25877,7 +25877,7 @@
         <v>2896.625</v>
       </c>
       <c r="C771">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D771">
         <v>211.022</v>
@@ -25909,7 +25909,7 @@
         <v>2896.75</v>
       </c>
       <c r="C772">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D772">
         <v>213.836</v>
@@ -25941,7 +25941,7 @@
         <v>2897.375</v>
       </c>
       <c r="C773">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D773">
         <v>201.478</v>
@@ -25973,7 +25973,7 @@
         <v>2897.5</v>
       </c>
       <c r="C774">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D774">
         <v>202.957</v>
@@ -26005,7 +26005,7 @@
         <v>2897.625</v>
       </c>
       <c r="C775">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D775">
         <v>203.683</v>
@@ -26037,7 +26037,7 @@
         <v>2898.375</v>
       </c>
       <c r="C776">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D776">
         <v>214.601</v>
@@ -26069,7 +26069,7 @@
         <v>2898.5</v>
       </c>
       <c r="C777">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D777">
         <v>213.344</v>
@@ -26101,7 +26101,7 @@
         <v>2898.625</v>
       </c>
       <c r="C778">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D778">
         <v>209.516</v>
@@ -26133,7 +26133,7 @@
         <v>2899.125</v>
       </c>
       <c r="C779">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D779">
         <v>209.189</v>
@@ -26165,7 +26165,7 @@
         <v>2899.25</v>
       </c>
       <c r="C780">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D780">
         <v>209.761</v>
@@ -26197,7 +26197,7 @@
         <v>2899.375</v>
       </c>
       <c r="C781">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D781">
         <v>213.236</v>
@@ -26229,7 +26229,7 @@
         <v>2900.125</v>
       </c>
       <c r="C782">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D782">
         <v>203.368</v>
@@ -26261,7 +26261,7 @@
         <v>2900.25</v>
       </c>
       <c r="C783">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D783">
         <v>200.59</v>
@@ -26293,7 +26293,7 @@
         <v>2900.375</v>
       </c>
       <c r="C784">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D784">
         <v>196.759</v>
@@ -26325,7 +26325,7 @@
         <v>2901.125</v>
       </c>
       <c r="C785">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D785">
         <v>207.358</v>
@@ -26357,7 +26357,7 @@
         <v>2901.25</v>
       </c>
       <c r="C786">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D786">
         <v>203.285</v>
@@ -26389,7 +26389,7 @@
         <v>2901.375</v>
       </c>
       <c r="C787">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D787">
         <v>200.415</v>
@@ -26421,7 +26421,7 @@
         <v>2902.125</v>
       </c>
       <c r="C788">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D788">
         <v>185.318</v>
@@ -26453,7 +26453,7 @@
         <v>2902.25</v>
       </c>
       <c r="C789">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D789">
         <v>187.379</v>
@@ -26485,7 +26485,7 @@
         <v>2902.375</v>
       </c>
       <c r="C790">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D790">
         <v>191.92</v>
@@ -26517,7 +26517,7 @@
         <v>2903</v>
       </c>
       <c r="C791">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D791">
         <v>221.162</v>
@@ -26549,7 +26549,7 @@
         <v>2903.125</v>
       </c>
       <c r="C792">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D792">
         <v>214.866</v>
@@ -26581,7 +26581,7 @@
         <v>2903.25</v>
       </c>
       <c r="C793">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D793">
         <v>205.511</v>
@@ -26609,7 +26609,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C793" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="2">
       <filters>
-        <filter val="6"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
     <extLst/>
